--- a/biology/Mycologie/Suillus_mediterraneensis/Suillus_mediterraneensis.xlsx
+++ b/biology/Mycologie/Suillus_mediterraneensis/Suillus_mediterraneensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet méditerranéen, Bolet jaune marbré
 Suillus mediterraneensis, le Bolet méditerranéen, est une espèce de champignon (Fungi) basidiomycète du genre Suillus. Il est caractérisé par son chapeau brunâtre décoloré de jaunâtre.
@@ -512,20 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus mediterraneensis (Jacquet. &amp; J. Blum) Redeuilh, 1992[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus mediterraneensis Jacquet. &amp; J. Blum, 1969[1].
-Synonymes
-Suillus mediterraneensis a pour synonymes[2] :
-Boletus granulatus var. mediterraneensis Jacquet. &amp; J. Blum, Bull. trimest. Soc. mycol. Fr. 81: 484 (1965)
-Boletus mediterraneensis (Jacquet. &amp; J. Blum) J. Blum, Bull. trimest. Soc. mycol. Fr. 85(1): 42 (1969)
-Suillus mediterraneensis f. xanthus Estadès &amp; Hurtado
-Étymologie
-L'épithète spécifique mediterraneensis fait référence à son aire de répartition à tendance méditerranéenne.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet méditerranéen[3].
-Suillus mediterraneensis porte aussi le nom vernaculaire populaire de "Pissacan", du Provençal Pissa-can, signifiant une plante ou un champignon sur lequel les chiens urinent, en réfèrence à l'aspect gluant et à la comestibilité médiocre de cette espèce (et des espèces proches). Ce terme est souvent utilisé de façon vague et inexacte, il est aussi utilisé pour faire réfèrence à n'importe quel Suillus de la section Granulati (Suillus granulatus, Suillus collinitus, Suillus bellinii, Suillus mediterraneensis), ou encore à n'importe quelle espèce du genre Suillus, c'est-à-dire la plupart des bolets à l'aspect gluant et flasque. Néanmoins, il s'agit du nom sous lequel cette espèce et ses proches sont recherchées dans le Sud de la France à des fins de consommation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus mediterraneensis (Jacquet. &amp; J. Blum) Redeuilh, 1992. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus mediterraneensis Jacquet. &amp; J. Blum, 1969.
 </t>
         </is>
       </c>
@@ -551,21 +555,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus mediterraneensis, le Bolet méditerranéen, sont les suivantes :
-Son chapeau est jaune terne, rapidement brun orangé à orangé cuivré par plages[4].
-L'hyménophore présente des pores jaune olivâtre[4].
-Son stipe est blanc ponctué de taches brunes, plus nombreuses dans la moitié supérieure[4]. À la fin ces granules sont brun pourpre à noirâtres sur toute la longueur du stipe[5].
-La chair est jaune dans le chapeau et le bas du stipe, puis sur toute la longueur à maturité. Son mycélium est rose, parfois peu évident à déceler[4].
-Réactions chimiques
-La base du stipe réagit à l'iode en devenant vert bouteille[5].
-Caractéristiques microscopiques
-Ses spores mesurent 9-12 x 4-5 µm[4].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Suillus mediterraneensis a pour synonymes :
+Boletus granulatus var. mediterraneensis Jacquet. &amp; J. Blum, Bull. trimest. Soc. mycol. Fr. 81: 484 (1965)
+Boletus mediterraneensis (Jacquet. &amp; J. Blum) J. Blum, Bull. trimest. Soc. mycol. Fr. 85(1): 42 (1969)
+Suillus mediterraneensis f. xanthus Estadès &amp; Hurtado</t>
         </is>
       </c>
     </row>
@@ -590,10 +594,198 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique mediterraneensis fait référence à son aire de répartition à tendance méditerranéenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet méditerranéen.
+Suillus mediterraneensis porte aussi le nom vernaculaire populaire de "Pissacan", du Provençal Pissa-can, signifiant une plante ou un champignon sur lequel les chiens urinent, en réfèrence à l'aspect gluant et à la comestibilité médiocre de cette espèce (et des espèces proches). Ce terme est souvent utilisé de façon vague et inexacte, il est aussi utilisé pour faire réfèrence à n'importe quel Suillus de la section Granulati (Suillus granulatus, Suillus collinitus, Suillus bellinii, Suillus mediterraneensis), ou encore à n'importe quelle espèce du genre Suillus, c'est-à-dire la plupart des bolets à l'aspect gluant et flasque. Néanmoins, il s'agit du nom sous lequel cette espèce et ses proches sont recherchées dans le Sud de la France à des fins de consommation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus mediterraneensis, le Bolet méditerranéen, sont les suivantes :
+Son chapeau est jaune terne, rapidement brun orangé à orangé cuivré par plages.
+L'hyménophore présente des pores jaune olivâtre.
+Son stipe est blanc ponctué de taches brunes, plus nombreuses dans la moitié supérieure. À la fin ces granules sont brun pourpre à noirâtres sur toute la longueur du stipe.
+La chair est jaune dans le chapeau et le bas du stipe, puis sur toute la longueur à maturité. Son mycélium est rose, parfois peu évident à déceler.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base du stipe réagit à l'iode en devenant vert bouteille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 9-12 x 4-5 µm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_mediterraneensis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Suillus mediterraneensis f. xanthus
 </t>
